--- a/dataframes/experimental_data_density/0361.xlsx
+++ b/dataframes/experimental_data_density/0361.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/cd318_ic_ac_uk/Documents/UNI/PhD/Code/GitHub repos/EOS/dataframes/experimental_data_density/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{CF3CA2AF-39ED-4FBF-9E26-0F8B34372F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF76B789-B98D-457C-955D-2075A843D09C}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{CF3CA2AF-39ED-4FBF-9E26-0F8B34372F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698DA477-3327-4309-AFD7-A629D77D9383}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCBB90C2-57DA-4474-9B38-094DBE56DC08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="12200" xr2:uid="{CCBB90C2-57DA-4474-9B38-094DBE56DC08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F50F1-4540-4C35-9A8A-845EBCD0B5AB}">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5000,27 +5004,27 @@
         <v>570.41999999999996</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D163" si="12">A131*1000000</f>
+        <f t="shared" ref="D131:D172" si="12">A131*1000000</f>
         <v>30000000</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E163" si="13">B131</f>
+        <f t="shared" ref="E131:E172" si="13">B131</f>
         <v>340</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F163" si="14">C131</f>
+        <f t="shared" ref="F131:F172" si="14">C131</f>
         <v>570.41999999999996</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G163" si="15">0.001*100</f>
+        <f t="shared" ref="G131:G172" si="15">0.001*100</f>
         <v>0.1</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H163" si="16">0.003/E131*100</f>
+        <f t="shared" ref="H131:H172" si="16">0.003/E131*100</f>
         <v>8.8235294117647073E-4</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I163" si="17">0.001*100</f>
+        <f t="shared" ref="I131:I172" si="17">0.001*100</f>
         <v>0.1</v>
       </c>
     </row>
@@ -6140,6 +6144,321 @@
         <v>8.3333333333333339E-4</v>
       </c>
       <c r="I163">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>160.82</v>
+      </c>
+      <c r="B164">
+        <v>313.14100000000002</v>
+      </c>
+      <c r="C164">
+        <v>676.92</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="12"/>
+        <v>160820000</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="13"/>
+        <v>313.14100000000002</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="14"/>
+        <v>676.92</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="16"/>
+        <v>9.5803487885648951E-4</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>104.15</v>
+      </c>
+      <c r="B165">
+        <v>313.14100000000002</v>
+      </c>
+      <c r="C165">
+        <v>652.47</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="12"/>
+        <v>104150000</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="13"/>
+        <v>313.14100000000002</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="14"/>
+        <v>652.47</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="16"/>
+        <v>9.5803487885648951E-4</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>28.684999999999999</v>
+      </c>
+      <c r="B166">
+        <v>313.14100000000002</v>
+      </c>
+      <c r="C166">
+        <v>605.88</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="12"/>
+        <v>28685000</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="13"/>
+        <v>313.14100000000002</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="14"/>
+        <v>605.88</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="16"/>
+        <v>9.5803487885648951E-4</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>86.75</v>
+      </c>
+      <c r="B167">
+        <v>317.93900000000002</v>
+      </c>
+      <c r="C167">
+        <v>638.91999999999996</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="12"/>
+        <v>86750000</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="13"/>
+        <v>317.93900000000002</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="14"/>
+        <v>638.91999999999996</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="16"/>
+        <v>9.4357722707815025E-4</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>56.05</v>
+      </c>
+      <c r="B168">
+        <v>317.93900000000002</v>
+      </c>
+      <c r="C168">
+        <v>620.46</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="12"/>
+        <v>56050000</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="13"/>
+        <v>317.93900000000002</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="14"/>
+        <v>620.46</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="16"/>
+        <v>9.4357722707815025E-4</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>14.007</v>
+      </c>
+      <c r="B169">
+        <v>317.93900000000002</v>
+      </c>
+      <c r="C169">
+        <v>585.88</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="12"/>
+        <v>14007000</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="13"/>
+        <v>317.93900000000002</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="14"/>
+        <v>585.88</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="16"/>
+        <v>9.4357722707815025E-4</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>50.661999999999999</v>
+      </c>
+      <c r="B170">
+        <v>323.13799999999998</v>
+      </c>
+      <c r="C170">
+        <v>610.28</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="12"/>
+        <v>50662000</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="13"/>
+        <v>323.13799999999998</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="14"/>
+        <v>610.28</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="16"/>
+        <v>9.2839591753368547E-4</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>25.331</v>
+      </c>
+      <c r="B171">
+        <v>323.13799999999998</v>
+      </c>
+      <c r="C171">
+        <v>589.39</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="12"/>
+        <v>25331000</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="13"/>
+        <v>323.13799999999998</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="14"/>
+        <v>589.39</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="16"/>
+        <v>9.2839591753368547E-4</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="B172">
+        <v>323.13799999999998</v>
+      </c>
+      <c r="C172">
+        <v>567.20000000000005</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="12"/>
+        <v>5066000</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="13"/>
+        <v>323.13799999999998</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="14"/>
+        <v>567.20000000000005</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="16"/>
+        <v>9.2839591753368547E-4</v>
+      </c>
+      <c r="I172">
         <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
